--- a/Data/Predictions/Random Forest/Random_Forest_Classifier_Predictions_All_Data.xlsx
+++ b/Data/Predictions/Random Forest/Random_Forest_Classifier_Predictions_All_Data.xlsx
@@ -468,17 +468,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sedan_test_orig_test_02109_resized.jpg</t>
+          <t>Sedan_test_orig_train_05214_resized.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Sedan_test_orig_test_02109_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Sedan_test_orig_train_05214_resized.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Sedan_test_orig_test_02109_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_05214_resized.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,103 +490,103 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SUV_test_orig_train_01159_resized.jpg</t>
+          <t>Sedan_test_orig_train_07443_resized.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/SUV_test_orig_train_01159_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Sedan_test_orig_train_07443_resized.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/SUV_test_orig_train_01159_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_07443_resized.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pickup_test_orig_train_03117_resized.jpg</t>
+          <t>SUV_test_orig_test_01499_resized.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Pickup_test_orig_train_03117_resized.jpg</t>
+          <t>../../../Images/test/Blurred/SUV_test_orig_test_01499_resized.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Pickup_test_orig_train_03117_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/SUV_test_orig_test_01499_resized.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sedan_test_orig_test_00043_resized.jpg</t>
+          <t>Convertible_test_orig_test_05721_resized.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Sedan_test_orig_test_00043_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Convertible_test_orig_test_05721_resized.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Sedan_test_orig_test_00043_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Convertible_test_orig_test_05721_resized.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SUV_test_orig_train_05783_resized.jpg</t>
+          <t>Sedan_test_orig_train_03893_resized.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/SUV_test_orig_train_05783_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Sedan_test_orig_train_03893_resized.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/SUV_test_orig_train_05783_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_03893_resized.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,22 +598,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Convertible_test_orig_test_03902_resized.jpg</t>
+          <t>Sedan_test_orig_test_03318_resized.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Convertible_test_orig_test_03902_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Sedan_test_orig_test_03318_resized.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Convertible_test_orig_test_03902_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Sedan_test_orig_test_03318_resized.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -630,22 +630,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pickup_test_orig_train_04703_resized.jpg</t>
+          <t>Pickup_test_orig_train_06566_resized.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Pickup_test_orig_train_04703_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Pickup_test_orig_train_06566_resized.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Pickup_test_orig_train_04703_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Pickup_test_orig_train_06566_resized.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -657,17 +657,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sedan_test_orig_train_02056_resized.jpg</t>
+          <t>Sedan_test_orig_train_02826_resized.jpg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Sedan_test_orig_train_02056_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Sedan_test_orig_train_02826_resized.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_02056_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_02826_resized.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,27 +679,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sedan_test_orig_test_00787_resized.jpg</t>
+          <t>Pickup_test_orig_test_01715_resized.jpg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Sedan_test_orig_test_00787_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Pickup_test_orig_test_01715_resized.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Sedan_test_orig_test_00787_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Pickup_test_orig_test_01715_resized.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -711,125 +711,125 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Convertible_test_orig_train_06671_resized.jpg</t>
+          <t>Convertible_test_orig_train_04854_resized.jpg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Convertible_test_orig_train_06671_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Convertible_test_orig_train_04854_resized.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Convertible_test_orig_train_06671_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Convertible_test_orig_train_04854_resized.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SUV_test_orig_test_00436_resized.jpg</t>
+          <t>Sedan_test_orig_train_00139_resized.jpg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/SUV_test_orig_test_00436_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Sedan_test_orig_train_00139_resized.jpg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/SUV_test_orig_test_00436_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_00139_resized.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Convertible</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Convertible_test_orig_train_05494_resized.jpg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>../../../Images/test/Blurred/Convertible_test_orig_train_05494_resized.jpg</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>../../../Images/test/No_Blur/Convertible_test_orig_train_05494_resized.jpg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>SUV</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SUV_test_orig_train_05590_resized.jpg</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>../../../Images/test/Blurred/SUV_test_orig_train_05590_resized.jpg</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>../../../Images/test/No_Blur/SUV_test_orig_train_05590_resized.jpg</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Pickup</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SUV_test_orig_train_00545_resized.jpg</t>
+          <t>Sedan_test_orig_train_07789_resized.jpg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/SUV_test_orig_train_00545_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Sedan_test_orig_train_07789_resized.jpg</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/SUV_test_orig_train_00545_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_07789_resized.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Convertible_test_orig_train_00190_resized.jpg</t>
+          <t>Sedan_test_orig_test_06845_resized.jpg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Convertible_test_orig_train_00190_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Sedan_test_orig_test_06845_resized.jpg</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Convertible_test_orig_train_00190_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Sedan_test_orig_test_06845_resized.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -841,27 +841,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sedan_test_orig_train_07789_resized.jpg</t>
+          <t>SUV_test_orig_test_03500_resized.jpg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Sedan_test_orig_train_07789_resized.jpg</t>
+          <t>../../../Images/test/Blurred/SUV_test_orig_test_03500_resized.jpg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_07789_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/SUV_test_orig_test_03500_resized.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>

--- a/Data/Predictions/Random Forest/Random_Forest_Classifier_Predictions_All_Data.xlsx
+++ b/Data/Predictions/Random Forest/Random_Forest_Classifier_Predictions_All_Data.xlsx
@@ -468,17 +468,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sedan_test_orig_train_05214_resized.jpg</t>
+          <t>Sedan_test_orig_train_06666_resized.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Sedan_test_orig_train_05214_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Sedan_test_orig_train_06666_resized.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_05214_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_06666_resized.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,265 +490,265 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sedan_test_orig_train_07443_resized.jpg</t>
+          <t>Convertible_test_orig_test_00905_resized.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Sedan_test_orig_train_07443_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Convertible_test_orig_test_00905_resized.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_07443_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Convertible_test_orig_test_00905_resized.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SUV_test_orig_test_01499_resized.jpg</t>
+          <t>Sedan_test_orig_train_00920_resized.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/SUV_test_orig_test_01499_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Sedan_test_orig_train_00920_resized.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/SUV_test_orig_test_01499_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_00920_resized.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Convertible_test_orig_test_05721_resized.jpg</t>
+          <t>Sedan_test_orig_test_04042_resized.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Convertible_test_orig_test_05721_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Sedan_test_orig_test_04042_resized.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Convertible_test_orig_test_05721_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Sedan_test_orig_test_04042_resized.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sedan_test_orig_train_03893_resized.jpg</t>
+          <t>SUV_test_orig_test_04803_resized.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Sedan_test_orig_train_03893_resized.jpg</t>
+          <t>../../../Images/test/Blurred/SUV_test_orig_test_04803_resized.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_03893_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/SUV_test_orig_test_04803_resized.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sedan_test_orig_test_03318_resized.jpg</t>
+          <t>SUV_test_orig_train_04020_resized.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Sedan_test_orig_test_03318_resized.jpg</t>
+          <t>../../../Images/test/Blurred/SUV_test_orig_train_04020_resized.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Sedan_test_orig_test_03318_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/SUV_test_orig_train_04020_resized.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Convertible</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pickup_test_orig_train_06566_resized.jpg</t>
+          <t>Convertible_test_orig_train_01331_resized.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Pickup_test_orig_train_06566_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Convertible_test_orig_train_01331_resized.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Pickup_test_orig_train_06566_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Convertible_test_orig_train_01331_resized.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sedan_test_orig_train_02826_resized.jpg</t>
+          <t>SUV_test_orig_train_02121_resized.jpg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Sedan_test_orig_train_02826_resized.jpg</t>
+          <t>../../../Images/test/Blurred/SUV_test_orig_train_02121_resized.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_02826_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/SUV_test_orig_train_02121_resized.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pickup_test_orig_test_01715_resized.jpg</t>
+          <t>Sedan_test_orig_test_02314_resized.jpg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Pickup_test_orig_test_01715_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Sedan_test_orig_test_02314_resized.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Pickup_test_orig_test_01715_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Sedan_test_orig_test_02314_resized.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Convertible_test_orig_train_04854_resized.jpg</t>
+          <t>Sedan_test_orig_train_04046_resized.jpg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Convertible_test_orig_train_04854_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Sedan_test_orig_train_04046_resized.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Convertible_test_orig_train_04854_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_04046_resized.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sedan_test_orig_train_00139_resized.jpg</t>
+          <t>Pickup_test_orig_test_05720_resized.jpg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Sedan_test_orig_train_00139_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Pickup_test_orig_test_05720_resized.jpg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_00139_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Pickup_test_orig_test_05720_resized.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -760,49 +760,49 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Convertible_test_orig_train_05494_resized.jpg</t>
+          <t>Sedan_test_orig_test_00728_resized.jpg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Convertible_test_orig_train_05494_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Sedan_test_orig_test_00728_resized.jpg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Convertible_test_orig_train_05494_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Sedan_test_orig_test_00728_resized.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sedan_test_orig_train_07789_resized.jpg</t>
+          <t>Convertible_test_orig_train_03566_resized.jpg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Sedan_test_orig_train_07789_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Convertible_test_orig_train_03566_resized.jpg</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Sedan_test_orig_train_07789_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Convertible_test_orig_train_03566_resized.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -814,49 +814,49 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sedan_test_orig_test_06845_resized.jpg</t>
+          <t>SUV_test_orig_train_07711_resized.jpg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/Sedan_test_orig_test_06845_resized.jpg</t>
+          <t>../../../Images/test/Blurred/SUV_test_orig_train_07711_resized.jpg</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/Sedan_test_orig_test_06845_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/SUV_test_orig_train_07711_resized.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SUV_test_orig_test_03500_resized.jpg</t>
+          <t>Pickup_test_orig_test_03367_resized.jpg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>../../../Images/test/Blurred/SUV_test_orig_test_03500_resized.jpg</t>
+          <t>../../../Images/test/Blurred/Pickup_test_orig_test_03367_resized.jpg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>../../../Images/test/No_Blur/SUV_test_orig_test_03500_resized.jpg</t>
+          <t>../../../Images/test/No_Blur/Pickup_test_orig_test_03367_resized.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/Data/Predictions/Random Forest/Random_Forest_Classifier_Predictions_All_Data.xlsx
+++ b/Data/Predictions/Random Forest/Random_Forest_Classifier_Predictions_All_Data.xlsx
@@ -753,7 +753,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -16035,7 +16035,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -20301,7 +20301,7 @@
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -22056,7 +22056,7 @@
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -23784,7 +23784,7 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -29130,7 +29130,7 @@
       </c>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -29373,7 +29373,7 @@
       </c>
       <c r="E1072" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -29454,7 +29454,7 @@
       </c>
       <c r="E1075" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -31830,7 +31830,7 @@
       </c>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -34854,7 +34854,7 @@
       </c>
       <c r="E1275" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -36582,7 +36582,7 @@
       </c>
       <c r="E1339" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -37095,7 +37095,7 @@
       </c>
       <c r="E1358" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -40362,7 +40362,7 @@
       </c>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
